--- a/nodes_source_analyses/energy/transport/transport_truck_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_truck_using_diesel_mix.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F51841-7806-CC45-B266-A097F27AB639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="1740" windowWidth="33420" windowHeight="25620" tabRatio="762" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,20 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>Source</t>
   </si>
@@ -347,9 +358,6 @@
     <t>CBS</t>
   </si>
   <si>
-    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
-  </si>
-  <si>
     <t>Note: used 2016 data since tonne kms is only available for 2016</t>
   </si>
   <si>
@@ -381,22 +389,41 @@
   </si>
   <si>
     <t>Tonne km vans</t>
+  </si>
+  <si>
+    <t>Note: vans are no longer part of trucks in the ETM</t>
+  </si>
+  <si>
+    <t>Weighted average is therefore no longer used</t>
+  </si>
+  <si>
+    <t>Only truck data is used</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -920,463 +947,464 @@
   </borders>
   <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1631,6 +1659,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1652,7 +1683,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1689,7 +1726,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1727,7 +1770,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1764,7 +1813,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1802,7 +1857,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1840,7 +1901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1878,7 +1945,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1916,7 +1989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1954,7 +2033,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2414,15 +2499,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="15" customWidth="1"/>
@@ -2430,24 +2515,24 @@
     <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="21" customFormat="1">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2456,7 +2541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -2465,7 +2550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2474,29 +2559,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="59"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="60"/>
       <c r="C10" s="61"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="60" t="s">
         <v>31</v>
@@ -2505,33 +2590,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="60"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="60"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="60"/>
       <c r="C14" s="61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="60"/>
       <c r="C15" s="61"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="60" t="s">
         <v>36</v>
@@ -2540,49 +2625,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="60"/>
       <c r="C17" s="65" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="60"/>
       <c r="C18" s="66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="60"/>
       <c r="C19" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="68"/>
       <c r="C20" s="69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="68"/>
       <c r="C21" s="70" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="68"/>
       <c r="C22" s="71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="68"/>
       <c r="C23" s="72" t="s">
         <v>44</v>
@@ -2595,8 +2680,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J20"/>
@@ -2605,7 +2690,7 @@
       <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="28" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="28" customWidth="1"/>
@@ -2620,50 +2705,50 @@
     <col min="11" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="126" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="131"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="134"/>
+    <row r="5" spans="2:10" ht="42" customHeight="1">
+      <c r="B5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="17" thickBot="1">
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="30"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2674,7 +2759,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" s="18" customFormat="1">
       <c r="B8" s="73"/>
       <c r="C8" s="74" t="s">
         <v>20</v>
@@ -2695,7 +2780,7 @@
       </c>
       <c r="J8" s="76"/>
     </row>
-    <row r="9" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" s="18" customFormat="1">
       <c r="B9" s="17"/>
       <c r="C9" s="12"/>
       <c r="D9" s="25"/>
@@ -2706,7 +2791,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="17"/>
       <c r="C10" s="12" t="s">
         <v>45</v>
@@ -2719,7 +2804,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="17"/>
       <c r="C11" s="109" t="s">
         <v>71</v>
@@ -2729,7 +2814,7 @@
       </c>
       <c r="E11" s="27">
         <f>'Research data'!E7</f>
-        <v>0.65614556139239466</v>
+        <v>0.97134736735257787</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="114" t="s">
@@ -2741,7 +2826,7 @@
       </c>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="33"/>
       <c r="C12" s="29"/>
       <c r="D12" s="77"/>
@@ -2752,7 +2837,7 @@
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="33"/>
       <c r="C13" s="12" t="s">
         <v>5</v>
@@ -2765,7 +2850,7 @@
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="33"/>
       <c r="C14" s="32" t="s">
         <v>23</v>
@@ -2787,7 +2872,7 @@
       </c>
       <c r="J14" s="80"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="33"/>
       <c r="C15" s="32" t="s">
         <v>22</v>
@@ -2806,7 +2891,7 @@
       </c>
       <c r="J15" s="80"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -2817,7 +2902,7 @@
       <c r="I16" s="36"/>
       <c r="J16" s="37"/>
     </row>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
@@ -2828,8 +2913,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:K14"/>
@@ -2838,7 +2923,7 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="4.5" style="38" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" style="38" customWidth="1"/>
@@ -2853,8 +2938,8 @@
     <col min="12" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="17" thickBot="1"/>
+    <row r="3" spans="2:11">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -2866,7 +2951,7 @@
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
     </row>
-    <row r="4" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" s="18" customFormat="1">
       <c r="B4" s="17"/>
       <c r="C4" s="84" t="s">
         <v>46</v>
@@ -2890,7 +2975,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="18" customHeight="1">
       <c r="B5" s="41"/>
       <c r="C5" s="47"/>
       <c r="D5" s="42"/>
@@ -2899,7 +2984,7 @@
       <c r="G5" s="45"/>
       <c r="K5" s="53"/>
     </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="41"/>
       <c r="C6" s="11" t="s">
         <v>45</v>
@@ -2912,7 +2997,7 @@
       <c r="J6" s="42"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="17" thickBot="1">
       <c r="B7" s="41"/>
       <c r="C7" s="111" t="s">
         <v>71</v>
@@ -2922,19 +3007,19 @@
       </c>
       <c r="E7" s="113">
         <f>I7</f>
-        <v>0.65614556139239466</v>
+        <v>0.97134736735257787</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="100"/>
       <c r="H7" s="42"/>
       <c r="I7" s="113">
         <f>Notes!E94</f>
-        <v>0.65614556139239466</v>
+        <v>0.97134736735257787</v>
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="55"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="41"/>
       <c r="C8" s="47"/>
       <c r="D8" s="42"/>
@@ -2943,7 +3028,7 @@
       <c r="G8" s="45"/>
       <c r="K8" s="53"/>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="17" thickBot="1">
       <c r="B9" s="41"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -2957,7 +3042,7 @@
       <c r="J9" s="42"/>
       <c r="K9" s="52"/>
     </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="48" t="s">
         <v>3</v>
@@ -2979,7 +3064,7 @@
       <c r="J10" s="42"/>
       <c r="K10" s="55"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="41"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2991,7 +3076,7 @@
       <c r="J11" s="42"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
@@ -3004,7 +3089,7 @@
       <c r="J12" s="42"/>
       <c r="K12" s="57"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="C13" s="83" t="s">
         <v>48</v>
       </c>
@@ -3028,7 +3113,7 @@
       <c r="J13" s="42"/>
       <c r="K13" s="85"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="C14" s="83" t="s">
         <v>49</v>
       </c>
@@ -3058,17 +3143,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="86" customWidth="1"/>
     <col min="2" max="2" width="4" style="86" customWidth="1"/>
@@ -3082,8 +3167,8 @@
     <col min="11" max="16384" width="33.1640625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="88"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -3094,7 +3179,7 @@
       <c r="I2" s="90"/>
       <c r="J2" s="89"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="91"/>
       <c r="C3" s="12" t="s">
         <v>16</v>
@@ -3107,7 +3192,7 @@
       <c r="I3" s="92"/>
       <c r="J3" s="93"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="91"/>
       <c r="C4" s="93"/>
       <c r="D4" s="93"/>
@@ -3118,7 +3203,7 @@
       <c r="I4" s="94"/>
       <c r="J4" s="93"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="95"/>
       <c r="C5" s="74" t="s">
         <v>17</v>
@@ -3145,7 +3230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="91"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3156,7 +3241,7 @@
       <c r="I6" s="92"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="91"/>
       <c r="C7" s="97"/>
       <c r="D7" s="93" t="s">
@@ -3179,7 +3264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="91"/>
       <c r="C8" s="99" t="s">
         <v>6</v>
@@ -3192,7 +3277,7 @@
       <c r="I8" s="93"/>
       <c r="J8" s="93"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="91"/>
       <c r="C9" s="97" t="s">
         <v>51</v>
@@ -3205,7 +3290,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="93"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="91"/>
       <c r="C10" s="97"/>
       <c r="D10" s="93"/>
@@ -3216,7 +3301,7 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="91"/>
       <c r="C11" s="116" t="s">
         <v>69</v>
@@ -3241,7 +3326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="91"/>
       <c r="C12" s="97" t="s">
         <v>6</v>
@@ -3254,7 +3339,7 @@
       <c r="I12" s="93"/>
       <c r="J12" s="93"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="91"/>
       <c r="C13" s="97" t="s">
         <v>3</v>
@@ -3267,14 +3352,14 @@
       <c r="I13" s="93"/>
       <c r="J13" s="93"/>
     </row>
-    <row r="15" spans="2:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="136" t="s">
-        <v>97</v>
+    <row r="15" spans="2:10" s="117" customFormat="1">
+      <c r="C15" s="127" t="s">
+        <v>96</v>
       </c>
       <c r="D15" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="136" t="s">
+      <c r="E15" s="127" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="117">
@@ -3287,14 +3372,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="136" t="s">
-        <v>98</v>
+    <row r="16" spans="2:10" s="117" customFormat="1">
+      <c r="C16" s="127" t="s">
+        <v>97</v>
       </c>
       <c r="D16" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="136" t="s">
+      <c r="E16" s="127" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="117">
@@ -3307,44 +3392,44 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="136" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="136" t="s">
+    <row r="17" spans="3:9">
+      <c r="C17" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="127" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="86">
         <v>2016</v>
       </c>
-      <c r="H17" s="139" t="s">
+      <c r="H17" s="130" t="s">
         <v>74</v>
       </c>
       <c r="I17" s="87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="136" t="s">
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="136" t="s">
+      <c r="E18" s="127" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="86">
         <v>2016</v>
       </c>
-      <c r="H18" s="139" t="s">
+      <c r="H18" s="130" t="s">
         <v>74</v>
       </c>
       <c r="I18" s="87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3354,14 +3439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="102" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="102" customWidth="1"/>
@@ -3375,8 +3460,8 @@
     <col min="12" max="16384" width="10.83203125" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="103"/>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
@@ -3388,7 +3473,7 @@
       <c r="J2" s="104"/>
       <c r="K2" s="104"/>
     </row>
-    <row r="3" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" s="18" customFormat="1">
       <c r="B3" s="73"/>
       <c r="C3" s="74" t="s">
         <v>40</v>
@@ -3404,7 +3489,7 @@
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="105"/>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -3416,7 +3501,7 @@
       <c r="J4" s="106"/>
       <c r="K4" s="106"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="105"/>
       <c r="C5" s="106"/>
       <c r="D5" s="106"/>
@@ -3428,7 +3513,7 @@
       <c r="J5" s="106"/>
       <c r="K5" s="106"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="105"/>
       <c r="C6" s="106" t="s">
         <v>52</v>
@@ -3442,7 +3527,7 @@
       <c r="J6" s="106"/>
       <c r="K6" s="106"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="105"/>
       <c r="C7" s="106" t="s">
         <v>59</v>
@@ -3456,7 +3541,7 @@
       <c r="J7" s="106"/>
       <c r="K7" s="106"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="105"/>
       <c r="C8" s="106"/>
       <c r="D8" s="106"/>
@@ -3468,7 +3553,7 @@
       <c r="J8" s="106"/>
       <c r="K8" s="106"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
       <c r="D9" s="106"/>
@@ -3480,7 +3565,7 @@
       <c r="J9" s="106"/>
       <c r="K9" s="106"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="105"/>
       <c r="C10" s="106"/>
       <c r="D10" s="106"/>
@@ -3492,7 +3577,7 @@
       <c r="J10" s="106"/>
       <c r="K10" s="106"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="105"/>
       <c r="C11" s="106"/>
       <c r="D11" s="106"/>
@@ -3504,7 +3589,7 @@
       <c r="J11" s="106"/>
       <c r="K11" s="106"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="105"/>
       <c r="C12" s="106">
         <v>12</v>
@@ -3520,7 +3605,7 @@
       <c r="J12" s="106"/>
       <c r="K12" s="106"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="105"/>
       <c r="C13" s="106"/>
       <c r="D13" s="106"/>
@@ -3532,7 +3617,7 @@
       <c r="J13" s="106"/>
       <c r="K13" s="106"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="105"/>
       <c r="C14" s="106"/>
       <c r="D14" s="106"/>
@@ -3544,7 +3629,7 @@
       <c r="J14" s="106"/>
       <c r="K14" s="106"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="105"/>
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
@@ -3556,7 +3641,7 @@
       <c r="J15" s="106"/>
       <c r="K15" s="106"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="105"/>
       <c r="C16" s="106"/>
       <c r="D16" s="106"/>
@@ -3568,7 +3653,7 @@
       <c r="J16" s="106"/>
       <c r="K16" s="106"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="105"/>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
@@ -3580,7 +3665,7 @@
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="105"/>
       <c r="C18" s="106"/>
       <c r="D18" s="106"/>
@@ -3592,7 +3677,7 @@
       <c r="J18" s="106"/>
       <c r="K18" s="106"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
       <c r="D19" s="106"/>
@@ -3604,7 +3689,7 @@
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="105"/>
       <c r="C20" s="106"/>
       <c r="D20" s="106"/>
@@ -3616,7 +3701,7 @@
       <c r="J20" s="106"/>
       <c r="K20" s="106"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="105"/>
       <c r="C21" s="106"/>
       <c r="D21" s="106"/>
@@ -3628,7 +3713,7 @@
       <c r="J21" s="106"/>
       <c r="K21" s="106"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="105"/>
       <c r="C22" s="106" t="s">
         <v>61</v>
@@ -3642,7 +3727,7 @@
       <c r="J22" s="106"/>
       <c r="K22" s="106"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="105"/>
       <c r="C23" s="106"/>
       <c r="D23" s="106"/>
@@ -3654,7 +3739,7 @@
       <c r="J23" s="106"/>
       <c r="K23" s="106"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="105"/>
       <c r="C24" s="106"/>
       <c r="D24" s="106"/>
@@ -3666,7 +3751,7 @@
       <c r="J24" s="106"/>
       <c r="K24" s="106"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="105"/>
       <c r="C25" s="106"/>
       <c r="D25" s="106"/>
@@ -3678,7 +3763,7 @@
       <c r="J25" s="106"/>
       <c r="K25" s="106"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="105"/>
       <c r="C26" s="106"/>
       <c r="D26" s="106"/>
@@ -3690,7 +3775,7 @@
       <c r="J26" s="106"/>
       <c r="K26" s="106"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="105"/>
       <c r="C27" s="106"/>
       <c r="D27" s="106"/>
@@ -3702,7 +3787,7 @@
       <c r="J27" s="106"/>
       <c r="K27" s="106"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="105"/>
       <c r="C28" s="106"/>
       <c r="D28" s="106"/>
@@ -3714,7 +3799,7 @@
       <c r="J28" s="106"/>
       <c r="K28" s="106"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="105"/>
       <c r="C29" s="106">
         <v>98300</v>
@@ -3730,7 +3815,7 @@
       <c r="J29" s="106"/>
       <c r="K29" s="106"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="105"/>
       <c r="C30" s="106"/>
       <c r="D30" s="106"/>
@@ -3742,7 +3827,7 @@
       <c r="J30" s="106"/>
       <c r="K30" s="106"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="105"/>
       <c r="C31" s="106"/>
       <c r="D31" s="106"/>
@@ -3754,7 +3839,7 @@
       <c r="J31" s="106"/>
       <c r="K31" s="106"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="105"/>
       <c r="C32" s="106"/>
       <c r="D32" s="106"/>
@@ -3766,7 +3851,7 @@
       <c r="J32" s="106"/>
       <c r="K32" s="106"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="105"/>
       <c r="C33" s="106"/>
       <c r="D33" s="106"/>
@@ -3778,7 +3863,7 @@
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="105"/>
       <c r="C34" s="106"/>
       <c r="D34" s="106"/>
@@ -3790,7 +3875,7 @@
       <c r="J34" s="106"/>
       <c r="K34" s="106"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11">
       <c r="B35" s="105"/>
       <c r="C35" s="106"/>
       <c r="D35" s="106"/>
@@ -3802,7 +3887,7 @@
       <c r="J35" s="106"/>
       <c r="K35" s="106"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" s="105"/>
       <c r="C36" s="106"/>
       <c r="D36" s="106"/>
@@ -3814,7 +3899,7 @@
       <c r="J36" s="106"/>
       <c r="K36" s="106"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11">
       <c r="B37" s="105"/>
       <c r="C37" s="106"/>
       <c r="D37" s="106"/>
@@ -3826,7 +3911,7 @@
       <c r="J37" s="106"/>
       <c r="K37" s="106"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11">
       <c r="B38" s="105"/>
       <c r="C38" s="106"/>
       <c r="D38" s="106"/>
@@ -3838,7 +3923,7 @@
       <c r="J38" s="106"/>
       <c r="K38" s="106"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11">
       <c r="B39" s="105"/>
       <c r="C39" s="106"/>
       <c r="D39" s="106"/>
@@ -3850,7 +3935,7 @@
       <c r="J39" s="106"/>
       <c r="K39" s="106"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40" s="105"/>
       <c r="C40" s="106"/>
       <c r="D40" s="106"/>
@@ -3862,7 +3947,7 @@
       <c r="J40" s="106"/>
       <c r="K40" s="106"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11">
       <c r="B41" s="105"/>
       <c r="C41" s="106" t="s">
         <v>53</v>
@@ -3876,7 +3961,7 @@
       <c r="J41" s="106"/>
       <c r="K41" s="106"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11">
       <c r="B42" s="105"/>
       <c r="C42" s="106" t="s">
         <v>62</v>
@@ -3890,7 +3975,7 @@
       <c r="J42" s="106"/>
       <c r="K42" s="106"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11">
       <c r="B43" s="105"/>
       <c r="C43" s="106"/>
       <c r="D43" s="106"/>
@@ -3902,7 +3987,7 @@
       <c r="J43" s="106"/>
       <c r="K43" s="106"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11">
       <c r="B44" s="105"/>
       <c r="C44" s="106"/>
       <c r="D44" s="106"/>
@@ -3914,7 +3999,7 @@
       <c r="J44" s="106"/>
       <c r="K44" s="106"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11">
       <c r="B45" s="105"/>
       <c r="C45" s="106"/>
       <c r="D45" s="106"/>
@@ -3926,7 +4011,7 @@
       <c r="J45" s="106"/>
       <c r="K45" s="106"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11">
       <c r="B46" s="105"/>
       <c r="C46" s="106"/>
       <c r="D46" s="106"/>
@@ -3938,7 +4023,7 @@
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11">
       <c r="B47" s="105"/>
       <c r="C47" s="106">
         <v>74052</v>
@@ -3954,7 +4039,7 @@
       <c r="J47" s="106"/>
       <c r="K47" s="106"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11">
       <c r="B48" s="105"/>
       <c r="C48" s="106"/>
       <c r="D48" s="106"/>
@@ -3966,7 +4051,7 @@
       <c r="J48" s="106"/>
       <c r="K48" s="106"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11">
       <c r="B49" s="105"/>
       <c r="C49" s="106"/>
       <c r="D49" s="106"/>
@@ -3978,7 +4063,7 @@
       <c r="J49" s="106"/>
       <c r="K49" s="106"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11">
       <c r="B50" s="105"/>
       <c r="C50" s="106"/>
       <c r="D50" s="106"/>
@@ -3990,7 +4075,7 @@
       <c r="J50" s="106"/>
       <c r="K50" s="106"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11">
       <c r="B51" s="105"/>
       <c r="C51" s="106"/>
       <c r="D51" s="106"/>
@@ -4002,7 +4087,7 @@
       <c r="J51" s="106"/>
       <c r="K51" s="106"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11">
       <c r="B52" s="105"/>
       <c r="C52" s="106"/>
       <c r="D52" s="106"/>
@@ -4014,7 +4099,7 @@
       <c r="J52" s="106"/>
       <c r="K52" s="106"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11">
       <c r="B53" s="105"/>
       <c r="C53" s="106"/>
       <c r="D53" s="106"/>
@@ -4026,7 +4111,7 @@
       <c r="J53" s="106"/>
       <c r="K53" s="106"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11">
       <c r="B54" s="105"/>
       <c r="C54" s="106">
         <v>3120</v>
@@ -4042,7 +4127,7 @@
       <c r="J54" s="106"/>
       <c r="K54" s="106"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11">
       <c r="B55" s="105"/>
       <c r="C55" s="106">
         <v>520</v>
@@ -4058,7 +4143,7 @@
       <c r="J55" s="106"/>
       <c r="K55" s="106"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11">
       <c r="B56" s="105"/>
       <c r="C56" s="106"/>
       <c r="D56" s="106"/>
@@ -4070,7 +4155,7 @@
       <c r="J56" s="106"/>
       <c r="K56" s="106"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11">
       <c r="B57" s="105"/>
       <c r="C57" s="106"/>
       <c r="D57" s="106"/>
@@ -4082,7 +4167,7 @@
       <c r="J57" s="106"/>
       <c r="K57" s="106"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11">
       <c r="B58" s="105"/>
       <c r="C58" s="106"/>
       <c r="D58" s="106"/>
@@ -4094,7 +4179,7 @@
       <c r="J58" s="106"/>
       <c r="K58" s="106"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11">
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
       <c r="D59" s="106"/>
@@ -4106,7 +4191,7 @@
       <c r="J59" s="106"/>
       <c r="K59" s="106"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11">
       <c r="B60" s="105"/>
       <c r="C60" s="106"/>
       <c r="D60" s="106"/>
@@ -4118,7 +4203,7 @@
       <c r="J60" s="106"/>
       <c r="K60" s="106"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11">
       <c r="B61" s="105"/>
       <c r="C61" s="106"/>
       <c r="D61" s="106"/>
@@ -4130,7 +4215,7 @@
       <c r="J61" s="106"/>
       <c r="K61" s="106"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11">
       <c r="B62" s="105"/>
       <c r="C62" s="106"/>
       <c r="D62" s="106"/>
@@ -4142,36 +4227,36 @@
       <c r="J62" s="106"/>
       <c r="K62" s="106"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11">
       <c r="B63" s="105"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11">
       <c r="B64" s="105"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12">
       <c r="B65" s="105"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12">
       <c r="B66" s="105"/>
     </row>
-    <row r="67" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="17" thickBot="1">
       <c r="B67" s="105"/>
-      <c r="G67" s="136" t="s">
+      <c r="G67" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="H67" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="I67" s="136" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:12" ht="18" thickBot="1">
       <c r="B68" s="105"/>
-      <c r="C68" s="136" t="s">
+      <c r="C68" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="F68" s="136" t="s">
+      <c r="F68" s="127" t="s">
         <v>84</v>
       </c>
       <c r="G68" s="102">
@@ -4181,14 +4266,17 @@
       <c r="H68" s="122">
         <v>9.4</v>
       </c>
-      <c r="I68" s="137"/>
-    </row>
-    <row r="69" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="128">
+        <f>1/H68</f>
+        <v>0.10638297872340426</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="18" thickBot="1">
       <c r="B69" s="105"/>
       <c r="C69" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="F69" s="136" t="s">
+      <c r="F69" s="127" t="s">
         <v>85</v>
       </c>
       <c r="G69" s="102">
@@ -4198,15 +4286,15 @@
       <c r="H69" s="122">
         <v>2.1</v>
       </c>
-      <c r="I69" s="137"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I69" s="128"/>
+    </row>
+    <row r="70" spans="2:12">
       <c r="B70" s="105"/>
       <c r="C70" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="136" t="s">
-        <v>96</v>
+      <c r="F70" s="127" t="s">
+        <v>95</v>
       </c>
       <c r="H70" s="102">
         <f>((H69*G69)+(H68*G68))/(G68+G69)</f>
@@ -4217,116 +4305,125 @@
         <v>0.23160020297256714</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12">
       <c r="B71" s="105"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12">
       <c r="B72" s="105"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F72" s="140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
       <c r="B73" s="105"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F73" s="140" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
       <c r="B74" s="105"/>
-    </row>
-    <row r="75" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="140" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="17" thickBot="1">
       <c r="B75" s="105"/>
     </row>
-    <row r="76" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="17" thickBot="1">
       <c r="B76" s="105"/>
-      <c r="F76" s="136" t="s">
+      <c r="F76" s="127" t="s">
         <v>82</v>
       </c>
       <c r="G76" s="122">
         <v>7546</v>
       </c>
-      <c r="H76" s="136" t="s">
+      <c r="H76" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="J76" s="136" t="s">
+      <c r="J76" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="L76" s="136" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="140" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="17" thickBot="1">
       <c r="B77" s="105"/>
-      <c r="F77" s="136" t="s">
+      <c r="F77" s="127" t="s">
         <v>86</v>
       </c>
       <c r="G77" s="122">
         <v>68900</v>
       </c>
-      <c r="H77" s="136" t="s">
+      <c r="H77" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="J77" s="136" t="s">
+      <c r="J77" s="127" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="17" thickBot="1">
       <c r="B78" s="105"/>
-      <c r="F78" s="136" t="s">
+      <c r="F78" s="127" t="s">
         <v>87</v>
       </c>
       <c r="G78" s="122">
         <v>17292.2</v>
       </c>
-      <c r="H78" s="136" t="s">
+      <c r="H78" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="J78" s="136" t="s">
+      <c r="J78" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="L78" s="136" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L78" s="127" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="17" thickBot="1">
       <c r="B79" s="105"/>
-      <c r="F79" s="136" t="s">
+      <c r="F79" s="127" t="s">
         <v>88</v>
       </c>
       <c r="G79" s="122">
         <v>1469</v>
       </c>
-      <c r="H79" s="136" t="s">
+      <c r="H79" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="J79" s="136" t="s">
+      <c r="J79" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="L79" s="136" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L79" s="127" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
       <c r="B80" s="106"/>
-      <c r="F80" s="136"/>
-      <c r="G80" s="138"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F80" s="127"/>
+      <c r="G80" s="129"/>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" s="106"/>
-      <c r="F81" s="136"/>
-      <c r="G81" s="138"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F81" s="127"/>
+      <c r="G81" s="129"/>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" s="106"/>
-      <c r="F82" s="136"/>
-      <c r="G82" s="138"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F82" s="127"/>
+      <c r="G82" s="129"/>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" s="106"/>
-      <c r="F83" s="136"/>
-      <c r="G83" s="138"/>
-    </row>
-    <row r="84" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="127"/>
+      <c r="G83" s="129"/>
+    </row>
+    <row r="84" spans="2:9" ht="17" thickBot="1">
       <c r="B84" s="106"/>
-      <c r="F84" s="136"/>
-      <c r="G84" s="138"/>
-    </row>
-    <row r="85" spans="2:9" s="119" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="127"/>
+      <c r="G84" s="129"/>
+    </row>
+    <row r="85" spans="2:9" s="119" customFormat="1" ht="17" thickBot="1">
       <c r="C85" s="120" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4431,8 @@
         <v>76</v>
       </c>
       <c r="E85" s="122">
-        <f>G76+G78</f>
-        <v>24838.2</v>
+        <f>G76</f>
+        <v>7546</v>
       </c>
       <c r="F85" s="121" t="s">
         <v>77</v>
@@ -4344,12 +4441,12 @@
       <c r="H85" s="121"/>
       <c r="I85" s="121"/>
     </row>
-    <row r="86" spans="2:9" s="119" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" s="119" customFormat="1" ht="17" thickBot="1">
       <c r="C86" s="121"/>
       <c r="D86" s="121"/>
       <c r="E86" s="121">
         <f>E85*1000000</f>
-        <v>24838200000</v>
+        <v>7546000000</v>
       </c>
       <c r="F86" s="121" t="s">
         <v>76</v>
@@ -4358,14 +4455,14 @@
       <c r="H86" s="121"/>
       <c r="I86" s="121"/>
     </row>
-    <row r="87" spans="2:9" s="119" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" s="119" customFormat="1" ht="17" thickBot="1">
       <c r="C87" s="121"/>
       <c r="D87" s="121" t="s">
         <v>78</v>
       </c>
       <c r="E87" s="123">
-        <f>G77+G79</f>
-        <v>70369</v>
+        <f>G77</f>
+        <v>68900</v>
       </c>
       <c r="F87" s="121" t="s">
         <v>79</v>
@@ -4374,12 +4471,12 @@
       <c r="H87" s="121"/>
       <c r="I87" s="121"/>
     </row>
-    <row r="88" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" s="119" customFormat="1">
       <c r="C88" s="121"/>
       <c r="D88" s="121"/>
       <c r="E88" s="124">
         <f>E87*1000000</f>
-        <v>70369000000</v>
+        <v>68900000000</v>
       </c>
       <c r="F88" s="121" t="s">
         <v>78</v>
@@ -4388,7 +4485,7 @@
       <c r="H88" s="121"/>
       <c r="I88" s="121"/>
     </row>
-    <row r="89" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" s="119" customFormat="1">
       <c r="C89" s="121"/>
       <c r="D89" s="121"/>
       <c r="E89" s="121"/>
@@ -4397,12 +4494,12 @@
       <c r="H89" s="121"/>
       <c r="I89" s="121"/>
     </row>
-    <row r="90" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" s="119" customFormat="1">
       <c r="C90" s="121"/>
       <c r="D90" s="121"/>
       <c r="E90" s="125">
         <f>E88/E86</f>
-        <v>2.8330957959916581</v>
+        <v>9.1306652531142323</v>
       </c>
       <c r="F90" s="121" t="s">
         <v>80</v>
@@ -4411,7 +4508,7 @@
       <c r="H90" s="121"/>
       <c r="I90" s="121"/>
     </row>
-    <row r="91" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" s="119" customFormat="1">
       <c r="C91" s="121"/>
       <c r="D91" s="121"/>
       <c r="E91" s="121"/>
@@ -4420,7 +4517,7 @@
       <c r="H91" s="121"/>
       <c r="I91" s="121"/>
     </row>
-    <row r="92" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" s="119" customFormat="1">
       <c r="C92" s="121"/>
       <c r="D92" s="121"/>
       <c r="E92" s="121"/>
@@ -4429,7 +4526,7 @@
       <c r="H92" s="121"/>
       <c r="I92" s="121"/>
     </row>
-    <row r="93" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" s="119" customFormat="1">
       <c r="C93" s="121"/>
       <c r="D93" s="121"/>
       <c r="E93" s="121"/>
@@ -4438,15 +4535,15 @@
       <c r="H93" s="121"/>
       <c r="I93" s="121"/>
     </row>
-    <row r="94" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" s="119" customFormat="1">
       <c r="C94" s="121"/>
       <c r="D94" s="121" t="str">
         <f>Dashboard!C11</f>
         <v>output.freight_tonne_kms</v>
       </c>
       <c r="E94" s="121">
-        <f>I70*E90</f>
-        <v>0.65614556139239466</v>
+        <f>I68*E90</f>
+        <v>0.97134736735257787</v>
       </c>
       <c r="F94" s="121" t="s">
         <v>81</v>
@@ -4457,7 +4554,7 @@
       </c>
       <c r="I94" s="121"/>
     </row>
-    <row r="95" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" s="119" customFormat="1">
       <c r="C95" s="121"/>
       <c r="D95" s="121"/>
       <c r="E95" s="121"/>
@@ -4466,7 +4563,7 @@
       <c r="H95" s="84"/>
       <c r="I95" s="121"/>
     </row>
-    <row r="96" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" s="119" customFormat="1">
       <c r="C96" s="121"/>
       <c r="D96" s="121"/>
       <c r="E96" s="121"/>
@@ -4475,7 +4572,7 @@
       <c r="H96" s="84"/>
       <c r="I96" s="121"/>
     </row>
-    <row r="97" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:9" s="119" customFormat="1">
       <c r="C97" s="121"/>
       <c r="D97" s="121"/>
       <c r="E97" s="121"/>
@@ -4484,84 +4581,84 @@
       <c r="H97" s="121"/>
       <c r="I97" s="121"/>
     </row>
-    <row r="98" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G104" s="135"/>
-    </row>
-    <row r="105" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G110" s="135"/>
-    </row>
-    <row r="111" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:9" s="119" customFormat="1"/>
+    <row r="99" spans="3:9" s="119" customFormat="1"/>
+    <row r="100" spans="3:9" s="119" customFormat="1"/>
+    <row r="101" spans="3:9" s="119" customFormat="1"/>
+    <row r="102" spans="3:9" s="119" customFormat="1"/>
+    <row r="103" spans="3:9" s="119" customFormat="1"/>
+    <row r="104" spans="3:9" s="119" customFormat="1">
+      <c r="G104" s="126"/>
+    </row>
+    <row r="105" spans="3:9" s="119" customFormat="1"/>
+    <row r="106" spans="3:9" s="119" customFormat="1"/>
+    <row r="107" spans="3:9" s="119" customFormat="1"/>
+    <row r="108" spans="3:9" s="119" customFormat="1"/>
+    <row r="109" spans="3:9" s="119" customFormat="1"/>
+    <row r="110" spans="3:9" s="119" customFormat="1">
+      <c r="G110" s="126"/>
+    </row>
+    <row r="111" spans="3:9" s="119" customFormat="1"/>
+    <row r="112" spans="3:9" s="119" customFormat="1"/>
+    <row r="113" spans="2:2" s="119" customFormat="1"/>
+    <row r="114" spans="2:2" s="119" customFormat="1"/>
+    <row r="115" spans="2:2" s="119" customFormat="1"/>
+    <row r="116" spans="2:2" s="119" customFormat="1"/>
+    <row r="117" spans="2:2" s="119" customFormat="1"/>
+    <row r="118" spans="2:2" s="119" customFormat="1"/>
+    <row r="119" spans="2:2" s="119" customFormat="1"/>
+    <row r="120" spans="2:2">
       <c r="B120" s="105"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="105"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="105"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="105"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="105"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="105"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="105"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="105"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="105"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2">
       <c r="B129" s="105"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2">
       <c r="B130" s="105"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2">
       <c r="B131" s="105"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2">
       <c r="B132" s="105"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2">
       <c r="B133" s="105"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2">
       <c r="B134" s="105"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2">
       <c r="B135" s="105"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2">
       <c r="B136" s="105"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2">
       <c r="B137" s="105"/>
     </row>
   </sheetData>
